--- a/CierreCaja2/formato_arqueo subir (1).xlsx
+++ b/CierreCaja2/formato_arqueo subir (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sistemas\Documents\PROJECTS\CierreCaja2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sc22\CierreCaja2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D750772A-57D2-40AA-B3C5-161F4B7A72E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2CC2A5-DF40-4D85-87B7-DEA414E4141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="4800" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Fecha</t>
   </si>
@@ -56,9 +52,6 @@
     <t>Egreso</t>
   </si>
   <si>
-    <t>12-07-2023</t>
-  </si>
-  <si>
     <t>ROLAND PRUEBAS INTEGRALES 1</t>
   </si>
   <si>
@@ -96,14 +89,69 @@
   </si>
   <si>
     <t>RL-INT1</t>
+  </si>
+  <si>
+    <t>LAARCOURIER</t>
+  </si>
+  <si>
+    <t>Nota de Crédito</t>
+  </si>
+  <si>
+    <t>Nota de credito</t>
+  </si>
+  <si>
+    <t>EFECTIVO</t>
+  </si>
+  <si>
+    <t>TRANSFERENCIAS</t>
+  </si>
+  <si>
+    <t>PubliPromueve</t>
+  </si>
+  <si>
+    <t>Alia</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>Diners</t>
+  </si>
+  <si>
+    <t>GiftCard</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>CREDITO DIRECTO CREDICORP</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>PINPAD</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>sap</t>
+  </si>
+  <si>
+    <t>hitell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_-"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,12 +166,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,11 +192,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,9 +520,11 @@
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -490,22 +549,28 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45129</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -514,22 +579,25 @@
         <v>66.8</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45129</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -538,22 +606,31 @@
         <v>67</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45129</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -562,22 +639,31 @@
         <v>254.7</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45128</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -586,22 +672,28 @@
         <v>71.790000000000006</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45129</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -610,70 +702,79 @@
         <v>26.8</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45129</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5645.29</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1">
-        <v>645.29</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>60</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -682,40 +783,66 @@
       <c r="H9" s="1">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
         <v>1192.3800000000001</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1">
         <v>83.7</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1">
         <v>1108.68</v>
       </c>
       <c r="H13" s="1"/>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CierreCaja2/formato_arqueo subir (1).xlsx
+++ b/CierreCaja2/formato_arqueo subir (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sc22\CierreCaja2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2CC2A5-DF40-4D85-87B7-DEA414E4141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868556B7-59F3-43EF-AF54-B208F8D570F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -88,9 +92,6 @@
     <t>CAJA</t>
   </si>
   <si>
-    <t>RL-INT1</t>
-  </si>
-  <si>
     <t>LAARCOURIER</t>
   </si>
   <si>
@@ -143,6 +144,9 @@
   </si>
   <si>
     <t>hitell</t>
+  </si>
+  <si>
+    <t>RL-REC1</t>
   </si>
 </sst>
 </file>
@@ -507,7 +511,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,21 +554,21 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -580,18 +584,18 @@
       </c>
       <c r="H2" s="1"/>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -607,10 +611,10 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
@@ -618,13 +622,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -640,10 +644,10 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -651,13 +655,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -673,7 +677,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
@@ -681,13 +685,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -703,18 +707,18 @@
       </c>
       <c r="H6" s="1"/>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -730,18 +734,18 @@
       </c>
       <c r="H7" s="1"/>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -757,18 +761,18 @@
       </c>
       <c r="H8" s="1"/>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -784,14 +788,14 @@
         <v>83.7</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -803,7 +807,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -815,7 +819,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -827,17 +831,17 @@
       </c>
       <c r="H13" s="1"/>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/CierreCaja2/formato_arqueo subir (1).xlsx
+++ b/CierreCaja2/formato_arqueo subir (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sc22\CierreCaja2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868556B7-59F3-43EF-AF54-B208F8D570F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A183A0A-3C30-4D18-A413-0094C5B709F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
